--- a/Control/ParametrosMotores.xlsx
+++ b/Control/ParametrosMotores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yovan\Desktop\Caracterización\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yovan\Desktop\Universidad\2024-I\Servomecanismos\Servomechanisms_projects\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5662282A-21F5-42CF-933F-84093329D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937D6D26-40C8-446E-919A-631E5F9DDE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EC05CA1B-F2B3-4E35-871B-95D20DD1E04C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EC05CA1B-F2B3-4E35-871B-95D20DD1E04C}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D753628-B62A-4FBA-A418-C4CB7F20AF98}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7D9CA-D51A-4738-937B-B3A18F293B88}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
